--- a/ResultadoEleicoesDistritos/LEIRIA_PORTO DE MÓS.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_PORTO DE MÓS.xlsx
@@ -597,64 +597,64 @@
         <v>6168</v>
       </c>
       <c r="H2" t="n">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="I2" t="n">
-        <v>571</v>
+        <v>618</v>
       </c>
       <c r="J2" t="n">
-        <v>2468</v>
+        <v>2509</v>
       </c>
       <c r="K2" t="n">
         <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="M2" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N2" t="n">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>11</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" t="n">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="T2" t="n">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="U2" t="n">
         <v>25</v>
       </c>
       <c r="V2" t="n">
-        <v>3921</v>
+        <v>4004</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>4015</v>
+        <v>3905</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
